--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\tanya\C++\excelmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\tanya\C++\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFFB84-8F8E-40F2-AAC5-E816C12C6A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9993E-4ADE-4D6C-8490-D4715A9FB159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4305622B-90BF-465F-8E73-98E00DDB6EB5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NAME</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>gnemo605@gmail.com</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>family.vashistha@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C4A12-E8BB-432C-AC7F-58E30F71F71A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,12 +489,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9F446EBA-AF8E-437B-BFC1-3CB16064F205}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{8AE88D19-09E0-47CC-96FD-80234AA4961F}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{F0165851-F910-46A6-B738-80AC04B0E738}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{47F8832A-F85F-4738-AADB-3B2C0997E6AC}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{58F2983F-69FC-49DC-9E24-7ADB2E9EFC7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
